--- a/pandas_library/files/Book7.xlsx
+++ b/pandas_library/files/Book7.xlsx
@@ -462,7 +462,7 @@
         <v>0.8599999999999999</v>
       </c>
       <c r="F2" s="2">
-        <v>45131.48333333333</v>
+        <v>45131.47916666666</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -485,7 +485,7 @@
         <v>0.8599999999999999</v>
       </c>
       <c r="F3" s="2">
-        <v>45132.525</v>
+        <v>45132</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -508,7 +508,7 @@
         <v>-1.14</v>
       </c>
       <c r="F4" s="2">
-        <v>45133.56666666667</v>
+        <v>45133</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -531,7 +531,7 @@
         <v>-1.14</v>
       </c>
       <c r="F5" s="2">
-        <v>45134.60833333333</v>
+        <v>45134</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -554,7 +554,7 @@
         <v>-0.1400000000000001</v>
       </c>
       <c r="F6" s="2">
-        <v>45135.65</v>
+        <v>45135</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -577,7 +577,7 @@
         <v>0.8599999999999999</v>
       </c>
       <c r="F7" s="2">
-        <v>45136.69166666667</v>
+        <v>45136</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -723,7 +723,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="2">
-        <v>45131.48333333333</v>
+        <v>45131.47916666666</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -737,7 +737,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>45132.525</v>
+        <v>45132</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -751,7 +751,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2">
-        <v>45133.56666666667</v>
+        <v>45133</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -765,7 +765,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="2">
-        <v>45134.60833333333</v>
+        <v>45134</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -779,7 +779,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="2">
-        <v>45135.65</v>
+        <v>45135</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -793,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="2">
-        <v>45136.69166666667</v>
+        <v>45136</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>

--- a/pandas_library/files/Book7.xlsx
+++ b/pandas_library/files/Book7.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="df" sheetId="1" r:id="rId1"/>
-    <sheet name="df2" sheetId="2" r:id="rId2"/>
-    <sheet name="df3" sheetId="3" r:id="rId3"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>string</t>
   </si>
@@ -24,34 +24,70 @@
     <t>integer</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>the fat black cat</t>
+  </si>
+  <si>
+    <t>sat on the mat</t>
+  </si>
+  <si>
+    <t>twinkle, twinkle</t>
+  </si>
+  <si>
+    <t>little star</t>
+  </si>
+  <si>
+    <t>how I wonder</t>
+  </si>
+  <si>
+    <t>what you are</t>
+  </si>
+  <si>
+    <t>11:36:00</t>
+  </si>
+  <si>
+    <t>12:36:00</t>
+  </si>
+  <si>
+    <t>13:36:00</t>
+  </si>
+  <si>
+    <t>14:36:00</t>
+  </si>
+  <si>
+    <t>15:36:00</t>
+  </si>
+  <si>
+    <t>16:36:00</t>
+  </si>
+  <si>
     <t>boolean</t>
   </si>
   <si>
-    <t>floatingpoint</t>
-  </si>
-  <si>
-    <t>datetime</t>
+    <t>date</t>
   </si>
   <si>
     <t>category</t>
   </si>
   <si>
-    <t>the fat black cat</t>
-  </si>
-  <si>
-    <t>sat on the mat</t>
-  </si>
-  <si>
-    <t>twinkle, twinkle</t>
-  </si>
-  <si>
-    <t>little star</t>
-  </si>
-  <si>
-    <t>how I wonder</t>
-  </si>
-  <si>
-    <t>what you are</t>
+    <t>24/07/2023</t>
+  </si>
+  <si>
+    <t>25/07/2023</t>
+  </si>
+  <si>
+    <t>26/07/2023</t>
+  </si>
+  <si>
+    <t>27/07/2023</t>
+  </si>
+  <si>
+    <t>28/07/2023</t>
+  </si>
+  <si>
+    <t>29/07/2023</t>
   </si>
   <si>
     <t>A</t>
@@ -64,9 +100,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -119,12 +152,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,13 +451,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,152 +467,89 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0.8599999999999999</v>
-      </c>
-      <c r="F2" s="2">
-        <v>45131.47916666666</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0.8599999999999999</v>
-      </c>
-      <c r="F3" s="2">
-        <v>45132</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>-1.14</v>
-      </c>
-      <c r="F4" s="2">
-        <v>45133</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>-1.14</v>
-      </c>
-      <c r="F5" s="2">
-        <v>45134</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>-0.1400000000000001</v>
-      </c>
-      <c r="F6" s="2">
-        <v>45135</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0.8599999999999999</v>
-      </c>
-      <c r="F7" s="2">
-        <v>45136</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
+      <c r="D7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -612,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -626,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -640,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -654,7 +623,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -668,7 +637,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -682,7 +651,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -709,10 +678,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -720,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2">
-        <v>45131.47916666666</v>
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -734,13 +703,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45132</v>
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -748,13 +717,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2">
-        <v>45133</v>
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -762,13 +731,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2">
-        <v>45134</v>
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -776,13 +745,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2">
-        <v>45135</v>
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -790,13 +759,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2">
-        <v>45136</v>
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/pandas_library/files/Book7.xlsx
+++ b/pandas_library/files/Book7.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
   <si>
     <t>string</t>
   </si>
@@ -45,24 +45,6 @@
     <t>what you are</t>
   </si>
   <si>
-    <t>11:36:00</t>
-  </si>
-  <si>
-    <t>12:36:00</t>
-  </si>
-  <si>
-    <t>13:36:00</t>
-  </si>
-  <si>
-    <t>14:36:00</t>
-  </si>
-  <si>
-    <t>15:36:00</t>
-  </si>
-  <si>
-    <t>16:36:00</t>
-  </si>
-  <si>
     <t>boolean</t>
   </si>
   <si>
@@ -70,24 +52,6 @@
   </si>
   <si>
     <t>category</t>
-  </si>
-  <si>
-    <t>24/07/2023</t>
-  </si>
-  <si>
-    <t>25/07/2023</t>
-  </si>
-  <si>
-    <t>26/07/2023</t>
-  </si>
-  <si>
-    <t>27/07/2023</t>
-  </si>
-  <si>
-    <t>28/07/2023</t>
-  </si>
-  <si>
-    <t>29/07/2023</t>
   </si>
   <si>
     <t>A</t>
@@ -100,6 +64,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -152,11 +119,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,8 +447,8 @@
       <c r="C2">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
+      <c r="D2" s="2">
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -492,8 +461,8 @@
       <c r="C3">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
+      <c r="D3" s="2">
+        <v>0.525</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -506,8 +475,8 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
+      <c r="D4" s="2">
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -520,8 +489,8 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
+      <c r="D5" s="2">
+        <v>0.6083333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -534,8 +503,8 @@
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
+      <c r="D6" s="2">
+        <v>0.65</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -548,8 +517,8 @@
       <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
-        <v>14</v>
+      <c r="D7" s="2">
+        <v>0.6916666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -573,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -678,10 +647,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -691,11 +660,11 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
+      <c r="C2" s="3">
+        <v>45131.47916666666</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -705,11 +674,11 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
+      <c r="C3" s="3">
+        <v>45132</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -719,11 +688,11 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
+      <c r="C4" s="3">
+        <v>45133</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -733,11 +702,11 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
+      <c r="C5" s="3">
+        <v>45134</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -747,11 +716,11 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>22</v>
+      <c r="C6" s="3">
+        <v>45135</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -761,11 +730,11 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
+      <c r="C7" s="3">
+        <v>45136</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
